--- a/src/main/java/com/qa/resources/testData.xlsx
+++ b/src/main/java/com/qa/resources/testData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18737FE3-8E08-481A-890B-4C718AFD22BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testdata" sheetId="1" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="89">
   <si>
     <t>Job Title</t>
   </si>
@@ -279,12 +280,15 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Aaaa Bbb Ccc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy/mm/dd;@"/>
   </numFmts>
@@ -477,6 +481,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -512,6 +533,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -687,7 +725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -697,20 +735,20 @@
       <selection activeCell="H2" sqref="H2:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -739,7 +777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -768,7 +806,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -797,7 +835,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -826,7 +864,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -855,7 +893,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -884,7 +922,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -913,7 +951,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -942,7 +980,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
@@ -971,7 +1009,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1000,7 +1038,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
@@ -1029,7 +1067,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1040,7 +1078,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1051,7 +1089,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1062,7 +1100,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1072,7 +1110,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1083,7 +1121,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1094,7 +1132,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1105,7 +1143,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1123,31 +1161,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>50</v>
       </c>
@@ -1179,9 +1217,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>58</v>
@@ -1211,9 +1249,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>59</v>
@@ -1243,9 +1281,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>60</v>
@@ -1275,9 +1313,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>61</v>
@@ -1307,9 +1345,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>62</v>
@@ -1339,9 +1377,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>63</v>
@@ -1371,9 +1409,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>64</v>
@@ -1403,9 +1441,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>65</v>
@@ -1435,9 +1473,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>66</v>
@@ -1467,21 +1505,22 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="I11" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
-    <hyperlink ref="D9" r:id="rId8"/>
-    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/src/main/java/com/qa/resources/testData.xlsx
+++ b/src/main/java/com/qa/resources/testData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18737FE3-8E08-481A-890B-4C718AFD22BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3CBD29-FC1F-4D3D-8407-8F4335060474}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testdata" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="72">
   <si>
     <t>Job Title</t>
   </si>
@@ -192,60 +192,9 @@
     <t>Consent to keep data</t>
   </si>
   <si>
-    <t>Anil</t>
-  </si>
-  <si>
-    <t>Sanjay</t>
-  </si>
-  <si>
-    <t>Vasant</t>
-  </si>
-  <si>
-    <t>Ramji</t>
-  </si>
-  <si>
-    <t>Vivek</t>
-  </si>
-  <si>
-    <t>Ranindra</t>
-  </si>
-  <si>
-    <t>Suresh</t>
-  </si>
-  <si>
-    <t>Chandrakant</t>
-  </si>
-  <si>
-    <t>Sameer</t>
-  </si>
-  <si>
-    <t>Shetty</t>
-  </si>
-  <si>
-    <t>Rawat</t>
-  </si>
-  <si>
-    <t>Pandey</t>
-  </si>
-  <si>
-    <t>Sharma</t>
-  </si>
-  <si>
-    <t>Varma</t>
-  </si>
-  <si>
-    <t>Gupta</t>
-  </si>
-  <si>
     <t>Deshmukh</t>
   </si>
   <si>
-    <t>Aiyyer</t>
-  </si>
-  <si>
-    <t>Bose</t>
-  </si>
-  <si>
     <t>akshay@gmail.com</t>
   </si>
   <si>
@@ -255,34 +204,34 @@
     <t>prasad@gmail.com</t>
   </si>
   <si>
-    <t>yogesh@gmail.com</t>
-  </si>
-  <si>
-    <t>nitin@gmail.com</t>
-  </si>
-  <si>
-    <t>amey@gmail.com</t>
-  </si>
-  <si>
-    <t>prashant@gmail.com</t>
-  </si>
-  <si>
-    <t>pratik@gmail.com</t>
-  </si>
-  <si>
-    <t>abhishek@gmail.com</t>
-  </si>
-  <si>
-    <t>Jr. HR Manager</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Aaaa Bbb Ccc</t>
+    <t>Software Engineer</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>Krishna</t>
+  </si>
+  <si>
+    <t>Bramha</t>
+  </si>
+  <si>
+    <t>Vitthal</t>
+  </si>
+  <si>
+    <t>Hari</t>
+  </si>
+  <si>
+    <t>Vasudev</t>
+  </si>
+  <si>
+    <t>Patil</t>
+  </si>
+  <si>
+    <t>Joshi</t>
   </si>
 </sst>
 </file>
@@ -1165,10 +1114,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1219,22 +1168,22 @@
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="E2" s="4">
-        <v>8087123456</v>
+        <v>8087000000</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>39</v>
@@ -1246,27 +1195,27 @@
         <v>43483</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E3" s="4">
-        <v>8087123457</v>
+        <v>8087000001</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>40</v>
@@ -1278,27 +1227,27 @@
         <v>43484</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E4" s="4">
-        <v>8087123458</v>
+        <v>8087000002</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>41</v>
@@ -1310,217 +1259,16 @@
         <v>43485</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="4">
-        <v>8087123459</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="5">
-        <v>43486</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="4">
-        <v>8087123460</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="5">
-        <v>43487</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="4">
-        <v>8087123461</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="5">
-        <v>43488</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="4">
-        <v>8087123462</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="5">
-        <v>43489</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="4">
-        <v>8087123463</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="5">
-        <v>43490</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="4">
-        <v>8087123464</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="5">
-        <v>43491</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="I11" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
     <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>